--- a/src/main/webapp/demoFileDownload/teacherImport_example.xlsx
+++ b/src/main/webapp/demoFileDownload/teacherImport_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\自己项目\学生在线考试系统\EXCEL表格格式\导入表格模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Fork contestsys\contestsys\src\main\webapp\demoFileDownload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A083F0-1B86-41D4-9BB0-F3B2FF22499F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BCBA9C-C690-42E4-BE31-B772326F8D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,10 +160,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -502,7 +504,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -528,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="31" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
